--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,187 +49,262 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>social</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>essential</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>toilet</t>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>consumer</t>
   </si>
   <si>
     <t>via</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
   <si>
     <t>prices</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -587,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,10 +670,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -677,28 +752,28 @@
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9230769230769231</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="N3">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -727,28 +802,28 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.8976377952755905</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -756,13 +831,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8047945205479452</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C5">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D5">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -774,31 +849,31 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.8899082568807339</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="L5">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="N5">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -806,13 +881,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5466666666666666</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -824,31 +899,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8793103448275862</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="N6">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -856,49 +931,49 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4727626459143969</v>
+        <v>0.52</v>
       </c>
       <c r="C7">
-        <v>243</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>245</v>
+        <v>39</v>
       </c>
       <c r="E7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>271</v>
+        <v>36</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.85</v>
+        <v>0.8984375</v>
       </c>
       <c r="L7">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="M7">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="N7">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -906,323 +981,347 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01169354838709677</v>
+        <v>0.5135658914728682</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>265</v>
       </c>
       <c r="D8">
-        <v>656</v>
+        <v>265</v>
       </c>
       <c r="E8">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>2451</v>
+        <v>251</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8428571428571429</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L8">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="M8">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N8">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.1812080536912752</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>122</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K9">
-        <v>0.8282828282828283</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L9">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="N9">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>0.8205128205128205</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L10">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="M10">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="N10">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.8037135278514589</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="L11">
-        <v>303</v>
+        <v>120</v>
       </c>
       <c r="M11">
-        <v>309</v>
+        <v>120</v>
       </c>
       <c r="N11">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7709251101321586</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L12">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="M12">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7444444444444445</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="M13">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7368421052631579</v>
+        <v>0.825</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="N14">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7121212121212122</v>
+        <v>0.793733681462141</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>304</v>
       </c>
       <c r="M15">
-        <v>51</v>
+        <v>304</v>
       </c>
       <c r="N15">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7015384615384616</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L16">
-        <v>228</v>
+        <v>55</v>
       </c>
       <c r="M16">
-        <v>243</v>
+        <v>55</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6971830985915493</v>
+        <v>0.7782426778242678</v>
       </c>
       <c r="L17">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="M17">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="N17">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6888888888888889</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6595744680851063</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1234,47 +1333,47 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6588235294117647</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L20">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="N20">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6031746031746031</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1286,99 +1385,99 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.5189873417721519</v>
+        <v>0.7205882352941176</v>
       </c>
       <c r="L22">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="M22">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.4786729857819905</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="L23">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="M23">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="N23">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>110</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.4736842105263158</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L24">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M24">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N24">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.4695652173913044</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L25">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1390,125 +1489,125 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.46875</v>
+        <v>0.5463917525773195</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.46875</v>
+        <v>0.5373134328358209</v>
       </c>
       <c r="L27">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="N27">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>85</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.4596577017114915</v>
+        <v>0.5345911949685535</v>
       </c>
       <c r="L28">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="M28">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="N28">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>221</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4074074074074074</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N29">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.373134328358209</v>
+        <v>0.5164835164835165</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1520,21 +1619,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.3626373626373626</v>
+        <v>0.5154639175257731</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1546,99 +1645,99 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.3455882352941176</v>
+        <v>0.5130434782608696</v>
       </c>
       <c r="L32">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="M32">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="N32">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.3448275862068966</v>
+        <v>0.5030674846625767</v>
       </c>
       <c r="L33">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="M33">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="N33">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>266</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.3422680412371134</v>
+        <v>0.5</v>
       </c>
       <c r="L34">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="N34">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>319</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.3289473684210527</v>
+        <v>0.4928229665071771</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1650,255 +1749,255 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>51</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.3121019108280255</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="L36">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="M36">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="N36">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>108</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.3118279569892473</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="M37">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="N37">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>64</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.3113207547169811</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L38">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="M38">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="N38">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>146</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.3097345132743363</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="L39">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="M39">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="N39">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>234</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.2933182332955833</v>
+        <v>0.4427480916030535</v>
       </c>
       <c r="L40">
-        <v>259</v>
+        <v>58</v>
       </c>
       <c r="M40">
-        <v>270</v>
+        <v>58</v>
       </c>
       <c r="N40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>624</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>0.2754098360655738</v>
+        <v>0.4402985074626866</v>
       </c>
       <c r="L41">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="M41">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="N41">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>221</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>0.2660550458715596</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L42">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N42">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K43">
-        <v>0.265695067264574</v>
+        <v>0.4268292682926829</v>
       </c>
       <c r="L43">
-        <v>237</v>
+        <v>35</v>
       </c>
       <c r="M43">
-        <v>246</v>
+        <v>35</v>
       </c>
       <c r="N43">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>655</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K44">
-        <v>0.2605633802816901</v>
+        <v>0.4088050314465409</v>
       </c>
       <c r="L44">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="M44">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K45">
-        <v>0.2585034013605442</v>
+        <v>0.3984962406015037</v>
       </c>
       <c r="L45">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="M45">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1910,73 +2009,73 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>109</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K46">
-        <v>0.2342342342342342</v>
+        <v>0.397119341563786</v>
       </c>
       <c r="L46">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="M46">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="N46">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>85</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K47">
-        <v>0.225609756097561</v>
+        <v>0.3879310344827586</v>
       </c>
       <c r="L47">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="M47">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N47">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>127</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K48">
-        <v>0.2241379310344828</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L48">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M48">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1988,73 +2087,73 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>90</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K49">
-        <v>0.220386974988202</v>
+        <v>0.3627906976744186</v>
       </c>
       <c r="L49">
-        <v>467</v>
+        <v>78</v>
       </c>
       <c r="M49">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="N49">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>1652</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="K50">
-        <v>0.2037037037037037</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L50">
-        <v>627</v>
+        <v>28</v>
       </c>
       <c r="M50">
-        <v>656</v>
+        <v>28</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>2451</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K51">
-        <v>0.1956521739130435</v>
+        <v>0.3533653846153846</v>
       </c>
       <c r="L51">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="M51">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2066,73 +2165,73 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>185</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K52">
-        <v>0.1946902654867257</v>
+        <v>0.343065693430657</v>
       </c>
       <c r="L52">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="M52">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="N52">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>455</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K53">
-        <v>0.1716738197424893</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L53">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M53">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N53">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>193</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K54">
-        <v>0.1647940074906367</v>
+        <v>0.3277310924369748</v>
       </c>
       <c r="L54">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M54">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2144,163 +2243,761 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>223</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K55">
-        <v>0.1475409836065574</v>
+        <v>0.3232662192393736</v>
       </c>
       <c r="L55">
-        <v>27</v>
+        <v>289</v>
       </c>
       <c r="M55">
-        <v>29</v>
+        <v>289</v>
       </c>
       <c r="N55">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>156</v>
+        <v>605</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K56">
-        <v>0.1455108359133127</v>
+        <v>0.3164556962025317</v>
       </c>
       <c r="L56">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="M56">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="N56">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>276</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K57">
-        <v>0.06955177743431221</v>
+        <v>0.3065902578796562</v>
       </c>
       <c r="L57">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="M57">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="N57">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>602</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K58">
-        <v>0.06134259259259259</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="L58">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="M58">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="N58">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>811</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K59">
-        <v>0.03968938740293356</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="L59">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M59">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N59">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>1113</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K60">
-        <v>0.03472005004691898</v>
+        <v>0.2952275249722531</v>
       </c>
       <c r="L60">
-        <v>111</v>
+        <v>266</v>
       </c>
       <c r="M60">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="N60">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>3086</v>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K61">
+        <v>0.2946428571428572</v>
+      </c>
+      <c r="L61">
+        <v>33</v>
+      </c>
+      <c r="M61">
+        <v>33</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K62">
+        <v>0.2935779816513762</v>
+      </c>
+      <c r="L62">
+        <v>96</v>
+      </c>
+      <c r="M62">
+        <v>96</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K63">
+        <v>0.2922077922077922</v>
+      </c>
+      <c r="L63">
+        <v>90</v>
+      </c>
+      <c r="M63">
+        <v>90</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K64">
+        <v>0.2909090909090909</v>
+      </c>
+      <c r="L64">
+        <v>48</v>
+      </c>
+      <c r="M64">
+        <v>48</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K65">
+        <v>0.2752293577981652</v>
+      </c>
+      <c r="L65">
+        <v>30</v>
+      </c>
+      <c r="M65">
+        <v>30</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K66">
+        <v>0.2645502645502645</v>
+      </c>
+      <c r="L66">
+        <v>150</v>
+      </c>
+      <c r="M66">
+        <v>150</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K67">
+        <v>0.261345349211458</v>
+      </c>
+      <c r="L67">
+        <v>812</v>
+      </c>
+      <c r="M67">
+        <v>812</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K68">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="L68">
+        <v>60</v>
+      </c>
+      <c r="M68">
+        <v>60</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K69">
+        <v>0.2587412587412588</v>
+      </c>
+      <c r="L69">
+        <v>37</v>
+      </c>
+      <c r="M69">
+        <v>37</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K70">
+        <v>0.2519685039370079</v>
+      </c>
+      <c r="L70">
+        <v>32</v>
+      </c>
+      <c r="M70">
+        <v>32</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K71">
+        <v>0.2515165655622958</v>
+      </c>
+      <c r="L71">
+        <v>539</v>
+      </c>
+      <c r="M71">
+        <v>539</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K72">
+        <v>0.2419354838709677</v>
+      </c>
+      <c r="L72">
+        <v>30</v>
+      </c>
+      <c r="M72">
+        <v>30</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K73">
+        <v>0.2216216216216216</v>
+      </c>
+      <c r="L73">
+        <v>41</v>
+      </c>
+      <c r="M73">
+        <v>41</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K74">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="L74">
+        <v>36</v>
+      </c>
+      <c r="M74">
+        <v>36</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K75">
+        <v>0.2049306625577812</v>
+      </c>
+      <c r="L75">
+        <v>133</v>
+      </c>
+      <c r="M75">
+        <v>134</v>
+      </c>
+      <c r="N75">
+        <v>0.99</v>
+      </c>
+      <c r="O75">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K76">
+        <v>0.1940928270042194</v>
+      </c>
+      <c r="L76">
+        <v>46</v>
+      </c>
+      <c r="M76">
+        <v>46</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K77">
+        <v>0.1903114186851211</v>
+      </c>
+      <c r="L77">
+        <v>165</v>
+      </c>
+      <c r="M77">
+        <v>165</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K78">
+        <v>0.1872659176029963</v>
+      </c>
+      <c r="L78">
+        <v>50</v>
+      </c>
+      <c r="M78">
+        <v>50</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K79">
+        <v>0.1811594202898551</v>
+      </c>
+      <c r="L79">
+        <v>25</v>
+      </c>
+      <c r="M79">
+        <v>25</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K80">
+        <v>0.09803921568627451</v>
+      </c>
+      <c r="L80">
+        <v>30</v>
+      </c>
+      <c r="M80">
+        <v>30</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K81">
+        <v>0.08256880733944955</v>
+      </c>
+      <c r="L81">
+        <v>45</v>
+      </c>
+      <c r="M81">
+        <v>45</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K82">
+        <v>0.04623555139019057</v>
+      </c>
+      <c r="L82">
+        <v>148</v>
+      </c>
+      <c r="M82">
+        <v>148</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K83">
+        <v>0.0301464254952627</v>
+      </c>
+      <c r="L83">
+        <v>35</v>
+      </c>
+      <c r="M83">
+        <v>35</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>1126</v>
       </c>
     </row>
   </sheetData>
